--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
@@ -1,26 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="initial" sheetId="5" r:id="rId1"/>
-    <sheet name="survey" sheetId="1" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" r:id="rId4"/>
-    <sheet name="model" sheetId="4" r:id="rId5"/>
-  </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="154">
@@ -1112,491 +1089,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1">
-      <c r="A1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" ht="30">
-      <c r="B4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" ht="45">
-      <c r="D5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="75">
-      <c r="A6" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="32" customFormat="1" ht="30">
-      <c r="D7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="32" customFormat="1">
-      <c r="D8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="30">
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1">
-      <c r="D10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1"/>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="75">
-      <c r="A12" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1"/>
-    <row r="14" spans="1:7" s="33" customFormat="1">
-      <c r="B14" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="32" customFormat="1">
-      <c r="B15" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" ht="30">
-      <c r="D16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="31" customFormat="1">
-      <c r="B17" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="34" customFormat="1">
-      <c r="A2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="34" customFormat="1">
-      <c r="A3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="35" customFormat="1">
-      <c r="A4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="35" customFormat="1">
-      <c r="A5" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="35" customFormat="1">
-      <c r="A6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="36" customFormat="1">
-      <c r="A7" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="36" customFormat="1">
-      <c r="A8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="36" customFormat="1">
-      <c r="A9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="36" customFormat="1">
-      <c r="A10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="37" customFormat="1">
-      <c r="A11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="37" customFormat="1">
-      <c r="A12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="37" customFormat="1">
-      <c r="A13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>

--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="420" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="initial" sheetId="5" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId4"/>
+    <sheet name="model" sheetId="4" r:id="rId5"/>
+  </sheets>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="154">
@@ -1089,6 +1112,491 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="30" customFormat="1">
+      <c r="A1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" ht="30">
+      <c r="B4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" ht="45">
+      <c r="D5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="75">
+      <c r="A6" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="32" customFormat="1" ht="30">
+      <c r="D7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="32" customFormat="1">
+      <c r="D8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="30">
+      <c r="B9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1">
+      <c r="D10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="33" customFormat="1"/>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="75">
+      <c r="A12" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1"/>
+    <row r="14" spans="1:7" s="33" customFormat="1">
+      <c r="B14" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1">
+      <c r="B15" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="31" customFormat="1" ht="30">
+      <c r="D16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="31" customFormat="1">
+      <c r="B17" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="34" customFormat="1">
+      <c r="A2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="34" customFormat="1">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="35" customFormat="1">
+      <c r="A4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="35" customFormat="1">
+      <c r="A5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="35" customFormat="1">
+      <c r="A6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="36" customFormat="1">
+      <c r="A7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="36" customFormat="1">
+      <c r="A8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="36" customFormat="1">
+      <c r="A9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="36" customFormat="1">
+      <c r="A10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="37" customFormat="1">
+      <c r="A11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="37" customFormat="1">
+      <c r="A12" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="37" customFormat="1">
+      <c r="A13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="29" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>

--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Ethiopia_members\forms\Ethiopia_Section3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="419" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="155">
   <si>
     <t>clause</t>
   </si>
@@ -160,9 +165,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -485,12 +487,18 @@
   </si>
   <si>
     <t>Is  {{data.name}} currently in attending school?</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -789,6 +797,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1117,12 +1133,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1130,20 +1149,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1161,23 +1180,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.77734375" style="1"/>
     <col min="3" max="3" width="29.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="23.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1">
+    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
@@ -1197,10 +1216,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1211,10 +1230,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1225,18 +1244,18 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="31" customFormat="1" ht="30">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" ht="45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="D5" s="31" t="s">
         <v>12</v>
       </c>
@@ -1247,26 +1266,26 @@
         <v>14</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="32" customFormat="1" ht="30">
+    <row r="7" spans="1:7" s="32" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D7" s="32" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="32" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
@@ -1280,15 +1299,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="30">
+    <row r="9" spans="1:7" s="33" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="33" t="s">
         <v>6</v>
       </c>
@@ -1302,13 +1321,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="33" customFormat="1"/>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="75">
+    <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="33" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>38</v>
@@ -1320,18 +1339,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1"/>
-    <row r="14" spans="1:7" s="33" customFormat="1">
+    <row r="13" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="32" customFormat="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="31" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
@@ -1342,12 +1361,12 @@
         <v>41</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="31" customFormat="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1369,14 +1388,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
@@ -1387,95 +1406,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="34" customFormat="1">
+    <row r="2" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="34" customFormat="1">
+    <row r="3" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="35" customFormat="1">
+    <row r="4" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="35" customFormat="1">
+    <row r="5" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="35" customFormat="1">
+    <row r="6" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="36" customFormat="1">
+    <row r="7" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="36" customFormat="1">
+    <row r="8" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="36" customFormat="1">
+    <row r="9" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="36" customFormat="1">
+    <row r="10" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>24</v>
       </c>
@@ -1486,34 +1505,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="37" customFormat="1">
+    <row r="11" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="37" customFormat="1">
+    <row r="12" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="37" customFormat="1">
+    <row r="13" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>37</v>
@@ -1533,18 +1552,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
@@ -1552,36 +1571,36 @@
         <v>44</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1605,16 +1624,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1623,96 +1642,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -1721,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -1730,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>14</v>
@@ -1739,7 +1758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
@@ -1748,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>33</v>
@@ -1757,16 +1776,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>41</v>
@@ -1775,450 +1794,450 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="C27" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
+      <c r="C28" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
+      <c r="C29" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="19" t="s">
+      <c r="C30" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="21" t="s">
-        <v>141</v>
-      </c>
       <c r="B31" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>79</v>
-      </c>
       <c r="C37" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>114</v>
-      </c>
       <c r="C55" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>6</v>

--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section3/Ethiopia_Section3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="419" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="419" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="154">
   <si>
     <t>clause</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>select_one</t>
@@ -1149,20 +1146,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1216,157 +1213,157 @@
         <v>4</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="31" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="31" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="D5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="32" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="32" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D7" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D8" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="33" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" s="33" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="31" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>7</v>
-      </c>
       <c r="F16" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1384,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1397,145 +1394,145 @@
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="29" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1565,42 +1562,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="C1" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1633,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1644,603 +1641,603 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
